--- a/events.xlsx
+++ b/events.xlsx
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d mmm"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -239,7 +242,7 @@
     <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -522,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>45962.0</v>
+        <v>45987.0</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -538,8 +541,8 @@
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
-        <v>45962.0</v>
+      <c r="B3" s="6">
+        <v>45987.0</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
@@ -555,8 +558,8 @@
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
-        <v>45962.0</v>
+      <c r="B4" s="6">
+        <v>45987.0</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>12</v>

--- a/events.xlsx
+++ b/events.xlsx
@@ -541,7 +541,7 @@
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45987.0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -558,7 +558,7 @@
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45987.0</v>
       </c>
       <c r="C4" s="12" t="s">

--- a/events.xlsx
+++ b/events.xlsx
@@ -498,6 +498,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
     <col customWidth="1" min="2" max="2" width="25.0"/>
     <col customWidth="1" min="3" max="3" width="14.5"/>
     <col customWidth="1" min="5" max="5" width="24.38"/>
